--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseRun" sheetId="2" r:id="rId1"/>
     <sheet name="AvgLoadTimeData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P19"/>
+  <oleSize ref="A1:F19"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">www20.thegeneraltest.com/ </t>
   </si>
   <si>
-    <t xml:space="preserve">non-monetized zip code </t>
-  </si>
-  <si>
     <t>Nil</t>
   </si>
   <si>
@@ -81,14 +78,19 @@
   </si>
   <si>
     <t>www20.thegeneraltest.com with InValid non-monetized ZIP code</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>33183</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,17 +407,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -426,7 +428,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -438,7 +440,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -449,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -460,26 +462,29 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
@@ -501,28 +506,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="43.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
@@ -561,7 +566,7 @@
         <v>93.942999999999998</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -572,7 +577,7 @@
         <v>31.236000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -583,7 +588,7 @@
         <v>2.4350000000000001</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -605,32 +610,32 @@
         <v>2.5659999999999998</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>30.842</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30.841999999999999</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2.417</v>
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2.4169999999999998</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.0</v>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -38,15 +38,9 @@
     <t>TC002</t>
   </si>
   <si>
-    <t xml:space="preserve">www20.thegeneraltest.com/quote/ </t>
-  </si>
-  <si>
     <t>TC003</t>
   </si>
   <si>
-    <t xml:space="preserve">www20.thegeneraltest.com/ </t>
-  </si>
-  <si>
     <t>Nil</t>
   </si>
   <si>
@@ -84,16 +78,45 @@
   </si>
   <si>
     <t>33183</t>
+  </si>
+  <si>
+    <t>https://www20.thegeneraltest.com/news/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www20.thegeneraltest.com/quote/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www20.thegeneraltest.com/ </t>
+  </si>
+  <si>
+    <t>https://www20.thegeneraltest.com/TGRV2/jsp/zipEntry.jsp</t>
+  </si>
+  <si>
+    <t>https://www20.thegeneraltest.com/TGRV2/QuickQuoteHouseholdController.gen</t>
+  </si>
+  <si>
+    <t>https://www20.thegeneraltest.com/</t>
+  </si>
+  <si>
+    <t>https://www20.thegeneraltest.com/quote/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,17 +139,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -405,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +443,7 @@
     <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -428,117 +451,116 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.0584000000000002</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.194</v>
       </c>
@@ -549,13 +571,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2.0150000000000001</v>
+        <v>93.942999999999998</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -563,10 +595,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>93.942999999999998</v>
+        <v>31.236000000000001</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -574,10 +606,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>31.236000000000001</v>
+        <v>2.4350000000000001</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -585,10 +617,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.4350000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -596,10 +628,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2.1</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -607,7 +639,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2.5659999999999998</v>
+        <v>30.841999999999999</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -618,10 +650,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>30.841999999999999</v>
+        <v>2.4169999999999998</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -629,13 +661,288 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2.4169999999999998</v>
+        <v>51.945666666666661</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>73.83</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2.706</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>93.957999999999998</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>93.992000000000004</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3.786</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2.6070000000000002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.7160000000000002</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.2509999999999999</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4.0579999999999998</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6.968</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2.2651999999999997</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5.1696</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7.8278000000000008</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>51.890799999999992</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>120.8432</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15735" windowHeight="10635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseRun" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="26">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -527,15 +527,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="73.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -945,6 +947,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3.4099600000000017</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>6.9706899999999976</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9.9792799999999939</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>58.228451000000007</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>60.324217999999981</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,15 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTVNSV31\Documents\selenium\cucumber java\Load-test\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6030" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseRun" sheetId="2" r:id="rId1"/>
     <sheet name="AvgLoadTimeData" sheetId="3" r:id="rId2"/>
+    <sheet name="TC001" sheetId="4" r:id="rId3"/>
+    <sheet name="TC002" sheetId="5" r:id="rId4"/>
+    <sheet name="TC003" sheetId="6" r:id="rId5"/>
+    <sheet name="TC004" sheetId="7" r:id="rId6"/>
+    <sheet name="TC005" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -430,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -527,9 +536,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -945,6 +956,222 @@
         <v>5</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2.1322829999999935</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>4.4401269999999942</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6.6400029999999983</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>31.52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>31.385000000000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>31.739000000000001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>31.635000000000002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NTVNSV31\Documents\selenium\cucumber java\Load-test\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6030" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345" tabRatio="721" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseRun" sheetId="2" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="TC005" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:G19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -108,6 +104,15 @@
   </si>
   <si>
     <t>https://www20.thegeneraltest.com/quote/</t>
+  </si>
+  <si>
+    <t>Time of Execution</t>
+  </si>
+  <si>
+    <t>2019/05/21 15:30:10</t>
+  </si>
+  <si>
+    <t>2019/05/21 15:45:36</t>
   </si>
 </sst>
 </file>
@@ -996,19 +1001,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1018,8 +1025,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>31.52</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31.385000000000002</v>
       </c>
@@ -1039,6 +1049,62 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31.073</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31.446999999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31.303999999999998</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31.47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1048,20 +1114,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1071,8 +1138,11 @@
       <c r="C1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>31.739000000000001</v>
       </c>
@@ -1083,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>31.635000000000002</v>
       </c>
@@ -1092,6 +1162,62 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32.154000000000003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>31.373000000000001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>31.847999999999999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>32.621000000000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1101,15 +1227,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1118,6 +1250,9 @@
       </c>
       <c r="C1" t="s">
         <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1127,15 +1262,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1144,6 +1285,9 @@
       </c>
       <c r="C1" t="s">
         <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1153,15 +1297,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="49.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1170,6 +1320,9 @@
       </c>
       <c r="C1" t="s">
         <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6345" tabRatio="721" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27690" windowHeight="10635" tabRatio="721" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TestCaseRun" sheetId="2" r:id="rId1"/>
@@ -15,10 +15,10 @@
     <sheet name="TC004" sheetId="7" r:id="rId6"/>
     <sheet name="TC005" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:G19"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A49:F67"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="36">
   <si>
     <t>www20.thegeneraltest.com/news/</t>
   </si>
@@ -113,13 +113,35 @@
   </si>
   <si>
     <t>2019/05/21 15:45:36</t>
+  </si>
+  <si>
+    <t>2019/05/22 15:56:43</t>
+  </si>
+  <si>
+    <t>2019/05/22 15:58:51</t>
+  </si>
+  <si>
+    <t>2019/05/22 16:20:08</t>
+  </si>
+  <si>
+    <t>2019/05/22 16:27:29</t>
+  </si>
+  <si>
+    <t>2019/05/22 16:29:09</t>
+  </si>
+  <si>
+    <t>2019/05/22 18:42:42</t>
+  </si>
+  <si>
+    <t>2019/05/22 19:43:17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,11 +472,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -549,9 +571,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="73.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,18 +1023,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1105,6 +1127,34 @@
       </c>
       <c r="D7" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>31.184999999999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>31.321999999999999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1122,10 +1172,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="40.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1235,10 +1285,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1262,18 +1312,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="64.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1288,6 +1338,992 @@
       </c>
       <c r="D1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30.044</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30.030999999999999</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30.04</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30.035</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30.038</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30.053999999999998</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30.047000000000001</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30.033000000000001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30.041</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30.041</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30.047999999999998</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30.036000000000001</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30.07</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30.050999999999998</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30.041</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30.05</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30.05</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30.035</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30.039000000000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30.044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30.041</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30.038</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30.04</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+      <c r="D38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30.032</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30.041</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30.038</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30.030999999999999</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30.04</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.04</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30.036000000000001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30.044</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30.032</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30.053000000000001</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30.035</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30.041</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30.032</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30.035</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>36</v>
+      </c>
+      <c r="D57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30.044</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30.044</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30.044</v>
+      </c>
+      <c r="B60" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30.035</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30.038</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63">
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30.036000000000001</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30.053999999999998</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30.041</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>46</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30.050999999999998</v>
+      </c>
+      <c r="B68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>47</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30.038</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>48</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>30.050999999999998</v>
+      </c>
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>30.030999999999999</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>50</v>
+      </c>
+      <c r="D71" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f>SUM(A22:A71)/50</f>
+        <v>30.041520000000006</v>
       </c>
     </row>
   </sheetData>
@@ -1297,18 +2333,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="49.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1325,6 +2361,782 @@
         <v>26</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>30.04</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>30.041</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>30.050999999999998</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30.038</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30.071000000000002</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>30.055</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>30.061</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>30.041</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>30.056000000000001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30.04</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30.04</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30.045999999999999</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30.04</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>30.048999999999999</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>30.042000000000002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>30.030999999999999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30.033999999999999</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30.044</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30.036000000000001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30.045000000000002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30.06</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30.044</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>30.05</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30.041</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="B36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30.035</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30.042999999999999</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>30.035</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>30.04</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>30.05</v>
+      </c>
+      <c r="B42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>30.047000000000001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>30.047999999999998</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>30.041</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>30.039000000000001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>30.05</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>30.053000000000001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>30.038</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30.04</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>SUM(A2:A51)/50</f>
+        <v>30.043779999999991</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>30.913</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>30.798</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>30.87</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>30.846</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
